--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/1CraftbetBrokenData.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/1CraftbetBrokenData.xlsx
@@ -6,16 +6,16 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="CopyGames" r:id="rId3" sheetId="1"/>
-    <sheet name="ProvidersBrokenImgWeb" r:id="rId4" sheetId="2"/>
-    <sheet name="GamesBrokenImgWeb" r:id="rId5" sheetId="3"/>
-    <sheet name="GamesBrokenURL" r:id="rId6" sheetId="4"/>
+    <sheet name="CopyGames" r:id="rId7" sheetId="9"/>
+    <sheet name="ProvidersBrokenImgWeb" r:id="rId8" sheetId="10"/>
+    <sheet name="GamesBrokenURL" r:id="rId6" sheetId="11"/>
+    <sheet name="GamesBrokenImgWeb" r:id="rId9" sheetId="12"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="520">
   <si>
     <t>Extremely Hot</t>
   </si>
@@ -1642,6 +1642,180 @@
   </si>
   <si>
     <t>4567 ID=77768 Provider=CQGaming Name=Zombie's Fortune cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>Mystic Hive</t>
+  </si>
+  <si>
+    <t>Mines</t>
+  </si>
+  <si>
+    <t>Fruits</t>
+  </si>
+  <si>
+    <t>Keno</t>
+  </si>
+  <si>
+    <t>Hat Trick</t>
+  </si>
+  <si>
+    <t>Ice Queen</t>
+  </si>
+  <si>
+    <t>Casino Hold'em</t>
+  </si>
+  <si>
+    <t>Outlaw</t>
+  </si>
+  <si>
+    <t>Plinko</t>
+  </si>
+  <si>
+    <t>Book Of Ra Classic</t>
+  </si>
+  <si>
+    <t>2264  Game ID = 54231  Game Provider Name = PragmaticPlay   Game Name =  Jackpot  cod = 403   src = https://resources.craftbet.com/products/</t>
+  </si>
+  <si>
+    <t>1302 ID=77598 Provider=CQGaming Name=Double Happiness cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1363 ID=25993 Provider=Edict Name=Dragon's Maid cod=0 description=null ResponseObject=Transactions ID failed value</t>
+  </si>
+  <si>
+    <t>1469 ID=77779 Provider=CQGaming Name=Eternal Fortune cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>1653 ID=77791 Provider=CQGaming Name=Fortune Cats cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>4619 ID=78984 Provider=CQGaming Name=Xiao Ne Zha cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>58 ID=6086 Provider=TomHorn Name=243 Crystal Fruits cod=21 description=Unknown partner or partner is disabled. PartnerID: '0262aff9-8256-4a25-9769-f51c6af9692d' ResponseObject=null</t>
+  </si>
+  <si>
+    <t>59 ID=6101 Provider=TomHorn Name=243 Crystal Fruits R. cod=21 description=Unknown partner or partner is disabled. PartnerID: '0262aff9-8256-4a25-9769-f51c6af9692d' ResponseObject=null</t>
+  </si>
+  <si>
+    <t>60 ID=6013 Provider=TomHorn Name=Black Mummy cod=21 description=Unknown partner or partner is disabled. PartnerID: '0262aff9-8256-4a25-9769-f51c6af9692d' ResponseObject=null</t>
+  </si>
+  <si>
+    <t>61 ID=6010 Provider=TomHorn Name=Blackbeard's Quest cod=21 description=Unknown partner or partner is disabled. PartnerID: '0262aff9-8256-4a25-9769-f51c6af9692d' ResponseObject=null</t>
+  </si>
+  <si>
+    <t>62 ID=6096 Provider=TomHorn Name=Blackbeards Quest Mini cod=21 description=Unknown partner or partner is disabled. PartnerID: '0262aff9-8256-4a25-9769-f51c6af9692d' ResponseObject=null</t>
+  </si>
+  <si>
+    <t>63 ID=6009 Provider=TomHorn Name=Book Of Spells cod=21 description=Unknown partner or partner is disabled. PartnerID: '0262aff9-8256-4a25-9769-f51c6af9692d' ResponseObject=null</t>
+  </si>
+  <si>
+    <t>64 ID=6104 Provider=TomHorn Name=Diamond Hill cod=21 description=Unknown partner or partner is disabled. PartnerID: '0262aff9-8256-4a25-9769-f51c6af9692d' ResponseObject=null</t>
+  </si>
+  <si>
+    <t>65 ID=6007 Provider=TomHorn Name=Don Juan's Peppers cod=21 description=Unknown partner or partner is disabled. PartnerID: '0262aff9-8256-4a25-9769-f51c6af9692d' ResponseObject=null</t>
+  </si>
+  <si>
+    <t>66 ID=6020 Provider=TomHorn Name=Dragon Egg cod=21 description=Unknown partner or partner is disabled. PartnerID: '0262aff9-8256-4a25-9769-f51c6af9692d' ResponseObject=null</t>
+  </si>
+  <si>
+    <t>67 ID=6097 Provider=TomHorn Name=Dragon Riches cod=21 description=Unknown partner or partner is disabled. PartnerID: '0262aff9-8256-4a25-9769-f51c6af9692d' ResponseObject=null</t>
+  </si>
+  <si>
+    <t>68 ID=6088 Provider=TomHorn Name=Dragon Riches Progressive cod=21 description=Unknown partner or partner is disabled. PartnerID: '0262aff9-8256-4a25-9769-f51c6af9692d' ResponseObject=null</t>
+  </si>
+  <si>
+    <t>69 ID=6019 Provider=TomHorn Name=Feng Fu cod=21 description=Unknown partner or partner is disabled. PartnerID: '0262aff9-8256-4a25-9769-f51c6af9692d' ResponseObject=null</t>
+  </si>
+  <si>
+    <t>70 ID=6003 Provider=TomHorn Name=Fire 'n' Hot cod=21 description=Unknown partner or partner is disabled. PartnerID: '0262aff9-8256-4a25-9769-f51c6af9692d' ResponseObject=null</t>
+  </si>
+  <si>
+    <t>71 ID=6015 Provider=TomHorn Name=Flaming Fruit cod=21 description=Unknown partner or partner is disabled. PartnerID: '0262aff9-8256-4a25-9769-f51c6af9692d' ResponseObject=null</t>
+  </si>
+  <si>
+    <t>72 ID=6089 Provider=TomHorn Name=Frozen Queen cod=21 description=Unknown partner or partner is disabled. PartnerID: '0262aff9-8256-4a25-9769-f51c6af9692d' ResponseObject=null</t>
+  </si>
+  <si>
+    <t>74 ID=6005 Provider=TomHorn Name=Geisha's Fan cod=21 description=Unknown partner or partner is disabled. PartnerID: '0262aff9-8256-4a25-9769-f51c6af9692d' ResponseObject=null</t>
+  </si>
+  <si>
+    <t>75 ID=6099 Provider=TomHorn Name=Gold x cod=21 description=Unknown partner or partner is disabled. PartnerID: '0262aff9-8256-4a25-9769-f51c6af9692d' ResponseObject=null</t>
+  </si>
+  <si>
+    <t>76 ID=6106 Provider=TomHorn Name=Hot Blizzard cod=21 description=Unknown partner or partner is disabled. PartnerID: '0262aff9-8256-4a25-9769-f51c6af9692d' ResponseObject=null</t>
+  </si>
+  <si>
+    <t>77 ID=6105 Provider=TomHorn Name=Hot'n'Fruity cod=21 description=Unknown partner or partner is disabled. PartnerID: '0262aff9-8256-4a25-9769-f51c6af9692d' ResponseObject=null</t>
+  </si>
+  <si>
+    <t>78 ID=6107 Provider=TomHorn Name=Inca's Treasure cod=21 description=Unknown partner or partner is disabled. PartnerID: '0262aff9-8256-4a25-9769-f51c6af9692d' ResponseObject=null</t>
+  </si>
+  <si>
+    <t>79 ID=6102 Provider=TomHorn Name=Joker Reelz cod=21 description=Unknown partner or partner is disabled. PartnerID: '0262aff9-8256-4a25-9769-f51c6af9692d' ResponseObject=null</t>
+  </si>
+  <si>
+    <t>80 ID=6008 Provider=TomHorn Name=Monkey 27 cod=21 description=Unknown partner or partner is disabled. PartnerID: '0262aff9-8256-4a25-9769-f51c6af9692d' ResponseObject=null</t>
+  </si>
+  <si>
+    <t>81 ID=6090 Provider=TomHorn Name=Monster Madness cod=21 description=Unknown partner or partner is disabled. PartnerID: '0262aff9-8256-4a25-9769-f51c6af9692d' ResponseObject=null</t>
+  </si>
+  <si>
+    <t>82 ID=6001 Provider=TomHorn Name=Panda's Run cod=21 description=Unknown partner or partner is disabled. PartnerID: '0262aff9-8256-4a25-9769-f51c6af9692d' ResponseObject=null</t>
+  </si>
+  <si>
+    <t>83 ID=6091 Provider=TomHorn Name=Red Lights cod=21 description=Unknown partner or partner is disabled. PartnerID: '0262aff9-8256-4a25-9769-f51c6af9692d' ResponseObject=null</t>
+  </si>
+  <si>
+    <t>84 ID=6018 Provider=TomHorn Name=Savannah King cod=21 description=Unknown partner or partner is disabled. PartnerID: '0262aff9-8256-4a25-9769-f51c6af9692d' ResponseObject=null</t>
+  </si>
+  <si>
+    <t>85 ID=6004 Provider=TomHorn Name=Shaolin's Tiger cod=21 description=Unknown partner or partner is disabled. PartnerID: '0262aff9-8256-4a25-9769-f51c6af9692d' ResponseObject=null</t>
+  </si>
+  <si>
+    <t>86 ID=6093 Provider=TomHorn Name=Sherlock In Bohemia cod=21 description=Unknown partner or partner is disabled. PartnerID: '0262aff9-8256-4a25-9769-f51c6af9692d' ResponseObject=null</t>
+  </si>
+  <si>
+    <t>87 ID=6012 Provider=TomHorn Name=Sizable Win cod=21 description=Unknown partner or partner is disabled. PartnerID: '0262aff9-8256-4a25-9769-f51c6af9692d' ResponseObject=null</t>
+  </si>
+  <si>
+    <t>88 ID=6017 Provider=TomHorn Name=Sky Barons cod=21 description=Unknown partner or partner is disabled. PartnerID: '0262aff9-8256-4a25-9769-f51c6af9692d' ResponseObject=null</t>
+  </si>
+  <si>
+    <t>89 ID=6109 Provider=TomHorn Name=Spinball cod=21 description=Unknown partner or partner is disabled. PartnerID: '0262aff9-8256-4a25-9769-f51c6af9692d' ResponseObject=null</t>
+  </si>
+  <si>
+    <t>90 ID=6098 Provider=TomHorn Name=Sweet Crush cod=21 description=Unknown partner or partner is disabled. PartnerID: '0262aff9-8256-4a25-9769-f51c6af9692d' ResponseObject=null</t>
+  </si>
+  <si>
+    <t>91 ID=6016 Provider=TomHorn Name=The Cup cod=21 description=Unknown partner or partner is disabled. PartnerID: '0262aff9-8256-4a25-9769-f51c6af9692d' ResponseObject=null</t>
+  </si>
+  <si>
+    <t>92 ID=6103 Provider=TomHorn Name=The Secret of BA cod=21 description=Unknown partner or partner is disabled. PartnerID: '0262aff9-8256-4a25-9769-f51c6af9692d' ResponseObject=null</t>
+  </si>
+  <si>
+    <t>93 ID=6006 Provider=TomHorn Name=Thrones Of Persia cod=21 description=Unknown partner or partner is disabled. PartnerID: '0262aff9-8256-4a25-9769-f51c6af9692d' ResponseObject=null</t>
+  </si>
+  <si>
+    <t>94 ID=6094 Provider=TomHorn Name=Wild Weather cod=21 description=Unknown partner or partner is disabled. PartnerID: '0262aff9-8256-4a25-9769-f51c6af9692d' ResponseObject=null</t>
+  </si>
+  <si>
+    <t>95 ID=6100 Provider=TomHorn Name=Wolf Sierra cod=21 description=Unknown partner or partner is disabled. PartnerID: '0262aff9-8256-4a25-9769-f51c6af9692d' ResponseObject=null</t>
+  </si>
+  <si>
+    <t>221 ID=250064 Provider=Microgaming Name=4 Masks of Inca cod=0 description=null ResponseObject=Transactions ID failed value</t>
+  </si>
+  <si>
+    <t>646 ID=76157 Provider=PariPlay Name=Blackjack cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>3501 ID=28667 Provider=Platipus Name=Santa’s Bag cod=0 description=null ResponseObject=Transactions ID failed value</t>
+  </si>
+  <si>
+    <t>1037  Game ID = 25703  Game Provider Name = Fugaso   Game Name =  Clash Of Gods  cod = 403   src = https://agstatic.com/games/fugaso/clash_of_gods1.jpg</t>
+  </si>
+  <si>
+    <t>2747  Game ID = 77133  Game Provider Name = Evoplay   Game Name =  Mega Greatest Catch Bоnus Buy  cod = 403   src = https://agstatic.com/games/evoplay/mega_greatest_catch_b?nus_buy.jpg</t>
   </si>
 </sst>
 </file>
@@ -1684,808 +1858,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A157"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="195.3125"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="s">
-        <v>156</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2500,9 +1873,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A47"/>
+  <dimension ref="A1:A40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2513,237 +1886,202 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>157</v>
+        <v>478</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>479</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>480</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>161</v>
+        <v>482</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>162</v>
+        <v>483</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>163</v>
+        <v>484</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>164</v>
+        <v>485</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>165</v>
+        <v>486</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>166</v>
+        <v>487</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>167</v>
+        <v>488</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>168</v>
+        <v>489</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>169</v>
+        <v>490</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>170</v>
+        <v>491</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>171</v>
+        <v>492</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>172</v>
+        <v>493</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>173</v>
+        <v>494</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>174</v>
+        <v>495</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>175</v>
+        <v>496</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>176</v>
+        <v>497</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>177</v>
+        <v>498</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>178</v>
+        <v>499</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>179</v>
+        <v>500</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>180</v>
+        <v>501</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>181</v>
+        <v>502</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>182</v>
+        <v>503</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>183</v>
+        <v>504</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>184</v>
+        <v>505</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>185</v>
+        <v>506</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>186</v>
+        <v>507</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>187</v>
+        <v>508</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>188</v>
+        <v>509</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>189</v>
+        <v>510</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>190</v>
+        <v>511</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>191</v>
+        <v>512</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>192</v>
+        <v>513</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>193</v>
+        <v>514</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>194</v>
+        <v>515</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>195</v>
+        <v>516</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>203</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -2751,9 +2089,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A258"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2764,1292 +2102,338 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>204</v>
+        <v>518</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>205</v>
+        <v>519</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="195.3125"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>206</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>207</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>208</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>209</v>
+        <v>463</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>210</v>
+        <v>464</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>211</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>212</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>213</v>
+        <v>466</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>214</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>215</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>216</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>217</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>218</v>
+        <v>467</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>219</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>220</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>221</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>222</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>223</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>224</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>225</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>226</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>227</v>
+        <v>468</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>228</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>229</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>230</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>231</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>232</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>233</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>234</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>235</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>236</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>238</v>
+        <v>469</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>239</v>
+        <v>470</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>240</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>241</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>242</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>243</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>244</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>245</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>246</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>247</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>248</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>249</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>250</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>251</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>252</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>253</v>
+        <v>471</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>254</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>255</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>256</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>257</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>258</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>259</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>260</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>261</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>262</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>263</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>264</v>
+        <v>154</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="s">
-        <v>461</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/1CraftbetBrokenData.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/1CraftbetBrokenData.xlsx
@@ -9,13 +9,14 @@
     <sheet name="CopyGames" r:id="rId7" sheetId="9"/>
     <sheet name="ProvidersBrokenImgWeb" r:id="rId8" sheetId="10"/>
     <sheet name="GamesBrokenURL" r:id="rId6" sheetId="11"/>
-    <sheet name="GamesBrokenImgWeb" r:id="rId9" sheetId="12"/>
+    <sheet name="GamesBrokenImgMobile" r:id="rId10" sheetId="13"/>
+    <sheet name="GamesBrokenImgWeb" r:id="rId9" sheetId="14"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="613">
   <si>
     <t>Extremely Hot</t>
   </si>
@@ -1816,6 +1817,285 @@
   </si>
   <si>
     <t>2747  Game ID = 77133  Game Provider Name = Evoplay   Game Name =  Mega Greatest Catch Bоnus Buy  cod = 403   src = https://agstatic.com/games/evoplay/mega_greatest_catch_b?nus_buy.jpg</t>
+  </si>
+  <si>
+    <t>0  Game ID = 29001  Game Provider Name = WorldMatch  Game Name = Magic Frog  :   src = https://resources.craftbet.com/products/</t>
+  </si>
+  <si>
+    <t>0  Game ID = 29001  Game Provider Name = WorldMatch  Game Name = Magic Frog  :   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/167f4099603192338fff7f3a74af313713bed3b5/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>0  Game ID = 29001  Game Provider Name = WorldMatch  Game Name = Magic Frog  :   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/640a93da2ae8e842034edb440250cbf326310695/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>0  Game ID = 29001  Game Provider Name = WorldMatch  Game Name = Magic Frog  :   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/f1bc85efc6a06d24ae655ce242b33d032d51a34e/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>0  Game ID = 29001  Game Provider Name = WorldMatch  Game Name = Magic Frog  :   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/7de126f53d6e4882248e1eb62d49e25edb6e67d1/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>849  Game ID = 67432  Game Provider Name = Spadegaming  Game Name = Cai Shen 888  :   src = https://resources.craftbet.com/products/</t>
+  </si>
+  <si>
+    <t>1258  Game ID = 23577  Game Provider Name = Merkur  Game Name = Double Triple chance  :   src = https://resources.craftbet.com/products/</t>
+  </si>
+  <si>
+    <t>1761  Game ID = 77979  Game Provider Name = BigTimeGaming  Game Name = Gifts of Fortune  :   src = https://resources.craftbet.com/products/</t>
+  </si>
+  <si>
+    <t>2002  Game ID = 26195  Game Provider Name = Genii  Game Name = Hercules: The 12 Labours  :   src = https://resources.craftbet.com/products/</t>
+  </si>
+  <si>
+    <t>2005  Game ID = 78467  Game Provider Name = CQGaming  Game Name = Hero of the 3 Kingdoms - Cao Cao  :   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/167f4099603192338fff7f3a74af313713bed3b5/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2411  Game ID = 75497  Game Provider Name = ISoftBet  Game Name = Legend Of Loki  :   src = https://resources.craftbet.com/products/</t>
+  </si>
+  <si>
+    <t>2468  Game ID = 76151  Game Provider Name = PlaynGo  Game Name = Lordi Reel Monsters  :   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/f1bc85efc6a06d24ae655ce242b33d032d51a34e/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2518  Game ID = 25654  Game Provider Name = Habanero  Game Name = Lucky Fortune Cat  :   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/640a93da2ae8e842034edb440250cbf326310695/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>4055  Game ID = 29884  Game Provider Name = NoLimitCity  Game Name = Tombstone  :   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/7de126f53d6e4882248e1eb62d49e25edb6e67d1/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>4401  Game ID = 68495  Game Provider Name = Betsoft  Game Name = Wilds of Fortune  :   src = https://resources.craftbet.com/products/</t>
+  </si>
+  <si>
+    <t>895  Game ID = 77913  Game Provider Name = Belatra  Game Name = Carousel  :   src = https://resources.craftbet.com/products/</t>
+  </si>
+  <si>
+    <t>1308  Game ID = 25295  Game Provider Name = Platipus  Game Name = Dragon's Element  :   src = https://resources.craftbet.com/products/</t>
+  </si>
+  <si>
+    <t>1753  Game ID = 28858  Game Provider Name = QuickSpin  Game Name = Ghost Glyph  :   src = https://resources.craftbet.com/products/</t>
+  </si>
+  <si>
+    <t>1977  Game ID = 29769  Game Provider Name = Leander  Game Name = Hattrick Heroes  :   src = https://resources.craftbet.com/products/</t>
+  </si>
+  <si>
+    <t>2074  Game ID = 68962  Game Provider Name = Gamzix  Game Name = Hot Love  :   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/167f4099603192338fff7f3a74af313713bed3b5/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2578  Game ID = 26778  Game Provider Name = Wazdan  Game Name = Magic Fruits 4 Deluxe  :   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/640a93da2ae8e842034edb440250cbf326310695/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2645  Game ID = 67209  Game Provider Name = Gamzix  Game Name = Make Money Rich Edition  :   src = https://resources.craftbet.com/products/</t>
+  </si>
+  <si>
+    <t>2667  Game ID = 29890  Game Provider Name = NoLimitCity  Game Name = Mayan Magic Wildfire  :   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/f1bc85efc6a06d24ae655ce242b33d032d51a34e/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>4143  Game ID = 77187  Game Provider Name = Spinomenal  Game Name = Twin Diamonds Xmas  :   src = https://resources.craftbet.com/products/</t>
+  </si>
+  <si>
+    <t>4475  Game ID = 67287  Game Provider Name = Thunderspin  Game Name = World Cup Football  :   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/7de126f53d6e4882248e1eb62d49e25edb6e67d1/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>898  Game ID = 54515  Game Provider Name = PragmaticPlay  Game Name = Cash Chips  :   src = https://resources.craftbet.com/products/</t>
+  </si>
+  <si>
+    <t>1099  Game ID = 78981  Game Provider Name = Habanero  Game Name = Crystopia  :   src = https://resources.craftbet.com/products/</t>
+  </si>
+  <si>
+    <t>2168  Game ID = 78552  Game Provider Name = Spinomenal  Game Name = Irish Treasures - Leprechaun's Fortune  :   src = https://resources.craftbet.com/products/</t>
+  </si>
+  <si>
+    <t>2413  Game ID = 29999  Game Provider Name = ISoftBet  Game Name = Legend Of The Four Beasts  :   src = https://resources.craftbet.com/products/</t>
+  </si>
+  <si>
+    <t>2446  Game ID = 65310  Game Provider Name = Mr.Slotty  Game Name = Lion The Lord  :   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/640a93da2ae8e842034edb440250cbf326310695/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2654  Game ID = 78830  Game Provider Name = PGSoft  Game Name = Mask Carnival  :   src = https://resources.craftbet.com/products/</t>
+  </si>
+  <si>
+    <t>2719  Game ID = 29567  Game Provider Name = Platipus  Game Name = Might Of Zeus  :   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/f1bc85efc6a06d24ae655ce242b33d032d51a34e/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>4049  Game ID = 29280  Game Provider Name = WorldMatch  Game Name = Tomahawk  :   src = https://resources.craftbet.com/products/</t>
+  </si>
+  <si>
+    <t>4106  Game ID = 68139  Game Provider Name = KAGaming  Game Name = Triple Dragons  :   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/7de126f53d6e4882248e1eb62d49e25edb6e67d1/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>261  Game ID = 75083  Game Provider Name = Leander  Game Name = A Pirate's Quest  :   src = https://resources.craftbet.com/products/</t>
+  </si>
+  <si>
+    <t>282  Game ID = 28746  Game Provider Name = GameArt  Game Name = African Sunset 2  :   src = https://resources.craftbet.com/products/</t>
+  </si>
+  <si>
+    <t>372  Game ID = 27091  Game Provider Name = WACS  Game Name = Arabian Legacy  :   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/640a93da2ae8e842034edb440250cbf326310695/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>644  Game ID = 66537  Game Provider Name = ELKStudios  Game Name = Bompers  :   src = https://resources.craftbet.com/products/</t>
+  </si>
+  <si>
+    <t>1313  Game ID = 76353  Game Provider Name = PariPlay  Game Name = Dragon's of the North MegaWays  :   src = https://resources.craftbet.com/products/</t>
+  </si>
+  <si>
+    <t>1405  Game ID = 27056  Game Provider Name = PlaynGo  Game Name = Energoonz  :   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/167f4099603192338fff7f3a74af313713bed3b5/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>1857  Game ID = 27615  Game Provider Name = BoomingGames  Game Name = Golden Girls  :   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/f1bc85efc6a06d24ae655ce242b33d032d51a34e/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>1897  Game ID = 77713  Game Provider Name = CQGaming  Game Name = Good Fortune M  :   src = https://resources.craftbet.com/products/</t>
+  </si>
+  <si>
+    <t>3977  Game ID = 54328  Game Provider Name = PragmaticPlay  Game Name = The Ultimate 5  :   src = https://resources.craftbet.com/products/</t>
+  </si>
+  <si>
+    <t>4032  Game ID = 75910  Game Provider Name = Yggdrasil  Game Name = Time Machine  :   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/7de126f53d6e4882248e1eb62d49e25edb6e67d1/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>265  Game ID = 29105  Game Provider Name = Habanero  Game Name = Aces &amp; Eights 5 Hand  :   src = https://resources.craftbet.com/products/</t>
+  </si>
+  <si>
+    <t>287  Game ID = 78402  Game Provider Name = PlayTech  Game Name = Age of Egypt  :   src = https://resources.craftbet.com/products/</t>
+  </si>
+  <si>
+    <t>409  Game ID = 28924  Game Provider Name = Genii  Game Name = Atlantic City Blackjack  :   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/640a93da2ae8e842034edb440250cbf326310695/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>692  Game ID = 76988  Game Provider Name = BeeFee  Game Name = Book of Gods  :   src = https://resources.craftbet.com/products/</t>
+  </si>
+  <si>
+    <t>1366  Game ID = 67260  Game Provider Name = Thunderspin  Game Name = Egypt Story  :   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/167f4099603192338fff7f3a74af313713bed3b5/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>1384  Game ID = 29381  Game Provider Name = GameArt  Game Name = El Toreo  :   src = https://resources.craftbet.com/products/</t>
+  </si>
+  <si>
+    <t>1884  Game ID = 25528  Game Provider Name = PlaynGo  Game Name = Golden Ticket 2  :   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/f1bc85efc6a06d24ae655ce242b33d032d51a34e/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>1924  Game ID = 68308  Game Provider Name = Betsoft  Game Name = Greedy Goblins NJP  :   src = https://resources.craftbet.com/products/</t>
+  </si>
+  <si>
+    <t>3972  Game ID = 26485  Game Provider Name = PlaynGo  Game Name = The Sword And The Grail  :   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/7de126f53d6e4882248e1eb62d49e25edb6e67d1/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>4448  Game ID = 54197  Game Provider Name = PragmaticPlay  Game Name = Wolf Gold 1,000,000  :   src = https://resources.craftbet.com/products/</t>
+  </si>
+  <si>
+    <t>268  Game ID = 75964  Game Provider Name = Yggdrasil  Game Name = Achilles  :   src = https://resources.craftbet.com/products/</t>
+  </si>
+  <si>
+    <t>285  Game ID = 26305  Game Provider Name = Yggdrasil  Game Name = Age Of Asgard  :   src = https://resources.craftbet.com/products/</t>
+  </si>
+  <si>
+    <t>403  Game ID = 75493  Game Provider Name = ISoftBet  Game Name = Astro Magic  :   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/640a93da2ae8e842034edb440250cbf326310695/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>693  Game ID = 25156  Game Provider Name = BigTimeGaming  Game Name = Book Of Gods  :   src = https://resources.craftbet.com/products/</t>
+  </si>
+  <si>
+    <t>1423  Game ID = 28469  Game Provider Name = Habanero  Game Name = European Roulette  :   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/167f4099603192338fff7f3a74af313713bed3b5/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>1438  Game ID = 27552  Game Provider Name = BoomingGames  Game Name = Exotic Fruit  :   src = https://resources.craftbet.com/products/</t>
+  </si>
+  <si>
+    <t>1854  Game ID = 23582  Game Provider Name = Merkur  Game Name = Golden Gate  :   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/f1bc85efc6a06d24ae655ce242b33d032d51a34e/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>3886  Game ID = 54188  Game Provider Name = PragmaticPlay  Game Name = The Catfather  :   src = https://resources.craftbet.com/products/</t>
+  </si>
+  <si>
+    <t>4232  Game ID = 67285  Game Provider Name = Thunderspin  Game Name = Vikings: Frozen Gods  :   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/7de126f53d6e4882248e1eb62d49e25edb6e67d1/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>849  Game ID = 67433  Game Provider Name = Spadegaming  Game Name = Cai Yuan Guang Jin  :   src = https://resources.craftbet.com/products/</t>
+  </si>
+  <si>
+    <t>1216  Game ID = 76067  Game Provider Name = Habanero  Game Name = Disco Beats  :   src = https://resources.craftbet.com/products/</t>
+  </si>
+  <si>
+    <t>1854  Game ID = 26932  Game Provider Name = Edict  Game Name = Golden Gate  :   src = https://resources.craftbet.com/products/</t>
+  </si>
+  <si>
+    <t>1878  Game ID = 28907  Game Provider Name = WorldMatch  Game Name = Golden Pig  :   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/167f4099603192338fff7f3a74af313713bed3b5/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2138  Game ID = 29906  Game Provider Name = ISoftBet  Game Name = Imperial Wealth  :   src = https://resources.craftbet.com/products/</t>
+  </si>
+  <si>
+    <t>2374  Game ID = 54187  Game Provider Name = PragmaticPlay  Game Name = KTV  :   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/640a93da2ae8e842034edb440250cbf326310695/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2588  Game ID = 54156  Game Provider Name = PragmaticPlay  Game Name = Magic Journey  :   src = https://resources.craftbet.com/products/</t>
+  </si>
+  <si>
+    <t>2660  Game ID = 69584  Game Provider Name = 1X2Gaming  Game Name = Maverick  :   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/f1bc85efc6a06d24ae655ce242b33d032d51a34e/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>4113  Game ID = 26796  Game Provider Name = Wazdan  Game Name = Triple Star  :   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/7de126f53d6e4882248e1eb62d49e25edb6e67d1/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>4376  Game ID = 69531  Game Provider Name = NetEnt  Game Name = Wild Turkey  :   src = https://resources.craftbet.com/products/</t>
+  </si>
+  <si>
+    <t>879  Game ID = 67435  Game Provider Name = Spadegaming   Game Name =  Candy Pop  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/f1bc85efc6a06d24ae655ce242b33d032d51a34e/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>1411  Game ID = 67450  Game Provider Name = Spadegaming   Game Name =  Emperor Gate SA  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/640a93da2ae8e842034edb440250cbf326310695/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2480  Game ID = 91000  Game Provider Name = BGGames   Game Name =  lobby  cod = 403   src = https://resources.craftbet.com/products/</t>
+  </si>
+  <si>
+    <t>3341  Game ID = 68480  Game Provider Name = Gamzix   Game Name =  Rich Granny  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/167f4099603192338fff7f3a74af313713bed3b5/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>3717  Game ID = 66557  Game Provider Name = 1X2Gaming   Game Name =  Stellar Ways  cod = 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/7de126f53d6e4882248e1eb62d49e25edb6e67d1/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>1921  Game ID = 28565  Game Provider Name = WorldMatch  Game Name = Goodluck Hot Pot  :   src = https://resources.craftbet.com/products/</t>
+  </si>
+  <si>
+    <t>2015  Game ID = 28749  Game Provider Name = PlaynGo  Game Name = Helloween  :   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/167f4099603192338fff7f3a74af313713bed3b5/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2386  Game ID = 69469  Game Provider Name = NetEnt  Game Name = Knight Rider Video Slot  :   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/640a93da2ae8e842034edb440250cbf326310695/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2732  Game ID = 27025  Game Provider Name = PlaynGo  Game Name = Mermaid's Diamond  :   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/f1bc85efc6a06d24ae655ce242b33d032d51a34e/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>4126  Game ID = 25158  Game Provider Name = Edict  Game Name = Treasures Of Egypt  :   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/7de126f53d6e4882248e1eb62d49e25edb6e67d1/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>3341  Game ID = 68480  Game Provider Name = Gamzix  Game Name = Rich Granny  :   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/167f4099603192338fff7f3a74af313713bed3b5/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>2480  Game ID = 91000  Game Provider Name = BGGames  Game Name = lobby  :   src = https://resources.craftbet.com/products/</t>
+  </si>
+  <si>
+    <t>1411  Game ID = 67450  Game Provider Name = Spadegaming  Game Name = Emperor Gate SA  :   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/640a93da2ae8e842034edb440250cbf326310695/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>879  Game ID = 67435  Game Provider Name = Spadegaming  Game Name = Candy Pop  :   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/f1bc85efc6a06d24ae655ce242b33d032d51a34e/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>3717  Game ID = 66557  Game Provider Name = 1X2Gaming  Game Name = Stellar Ways  :   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/7de126f53d6e4882248e1eb62d49e25edb6e67d1/Games%20Catalog%20image/image.png</t>
+  </si>
+  <si>
+    <t>1  2480  Game ID = 91000  Game Provider Name = BGGames  Game Name = lobby  cod  : 403   src = https://resources.craftbet.com/products/</t>
+  </si>
+  <si>
+    <t>2  3341  Game ID = 68480  Game Provider Name = Gamzix  Game Name = Rich Granny  cod  : 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/167f4099603192338fff7f3a74af313713bed3b5/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>3  1411  Game ID = 67450  Game Provider Name = Spadegaming  Game Name = Emperor Gate SA  cod  : 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/640a93da2ae8e842034edb440250cbf326310695/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>4  879  Game ID = 67435  Game Provider Name = Spadegaming  Game Name = Candy Pop  cod  : 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/f1bc85efc6a06d24ae655ce242b33d032d51a34e/Games%20Catalog%20image/image.jpg</t>
+  </si>
+  <si>
+    <t>5  3717  Game ID = 66557  Game Provider Name = 1X2Gaming  Game Name = Stellar Ways  cod  : 403   src = https://s3-eu-west-1.amazonaws.com/marketing-assets-83/games-prod/new/7de126f53d6e4882248e1eb62d49e25edb6e67d1/Games%20Catalog%20image/image.png</t>
   </si>
 </sst>
 </file>
@@ -2089,9 +2369,75 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="195.3125"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>592</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2102,12 +2448,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>518</v>
+        <v>608</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>519</v>
+        <v>609</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>612</v>
       </c>
     </row>
   </sheetData>
